--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,15 +474,11 @@
           <t>Energy</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2,396.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2,501.00</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2396</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2501</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -504,15 +500,11 @@
           <t>Energy</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5,422.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5,583.00</t>
-        </is>
+      <c r="D3" t="n">
+        <v>5422</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5583</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -534,15 +526,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16,550.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>17,030.00</t>
-        </is>
+      <c r="D4" t="n">
+        <v>16550</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17030</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -564,15 +552,11 @@
           <t>Energy</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1,790.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1,840.00</t>
-        </is>
+      <c r="D5" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1840</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -594,15 +578,11 @@
           <t>Energy</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3,645.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3,724.00</t>
-        </is>
+      <c r="D6" t="n">
+        <v>3645</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3724</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -624,15 +604,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7,268.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7,402.00</t>
-        </is>
+      <c r="D7" t="n">
+        <v>7268</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7402</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -654,15 +630,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8,676.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8,812.00</t>
-        </is>
+      <c r="D8" t="n">
+        <v>8676</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8812</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -684,15 +656,11 @@
           <t>Chemical</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8,786.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8,917.00</t>
-        </is>
+      <c r="D9" t="n">
+        <v>8786</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8917</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -714,15 +682,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7,986.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8,098.00</t>
-        </is>
+      <c r="D10" t="n">
+        <v>7986</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8098</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -744,15 +708,11 @@
           <t>Textile</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6,144.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6,222.00</t>
-        </is>
+      <c r="D11" t="n">
+        <v>6144</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6222</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -774,15 +734,11 @@
           <t>Textile</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>23,220.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>23,505.00</t>
-        </is>
+      <c r="D12" t="n">
+        <v>23220</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23505</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -800,15 +756,11 @@
           <t>Rubber &amp; plastics</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12,750.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12,890.00</t>
-        </is>
+      <c r="D13" t="n">
+        <v>12750</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12890</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -826,15 +778,11 @@
           <t>Chemical</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8,976.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9,074.00</t>
-        </is>
+      <c r="D14" t="n">
+        <v>8976</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9074</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -856,15 +804,11 @@
           <t>Textile</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7,648.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7,730.00</t>
-        </is>
+      <c r="D15" t="n">
+        <v>7648</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7730</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -886,15 +830,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,096.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,129.00</t>
-        </is>
+      <c r="D16" t="n">
+        <v>3096</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3129</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -916,15 +856,11 @@
           <t>Textile</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>17,340.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>17,520.00</t>
-        </is>
+      <c r="D17" t="n">
+        <v>17340</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17520</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -942,15 +878,11 @@
           <t>Chemical</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>148,350.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>149,700.00</t>
-        </is>
+      <c r="D18" t="n">
+        <v>148350</v>
+      </c>
+      <c r="E18" t="n">
+        <v>149700</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -972,15 +904,11 @@
           <t>Steel</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>844.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>851.50</t>
-        </is>
+      <c r="D19" t="n">
+        <v>844.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>851.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1002,15 +930,11 @@
           <t>Steel</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3,768.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3,798.00</t>
-        </is>
+      <c r="D20" t="n">
+        <v>3768</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3798</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1032,15 +956,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,550.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2,569.00</t>
-        </is>
+      <c r="D21" t="n">
+        <v>2550</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2569</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1062,15 +982,11 @@
           <t>Building materials</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6,198.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>6,240.00</t>
-        </is>
+      <c r="D22" t="n">
+        <v>6198</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6240</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1092,15 +1008,11 @@
           <t>Chemical</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2,137.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2,151.00</t>
-        </is>
+      <c r="D23" t="n">
+        <v>2137</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2151</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1122,15 +1034,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3,979.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4,000.00</t>
-        </is>
+      <c r="D24" t="n">
+        <v>3979</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1152,15 +1060,11 @@
           <t>Energy</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2,473.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2,486.00</t>
-        </is>
+      <c r="D25" t="n">
+        <v>2473</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2486</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1182,15 +1086,11 @@
           <t>Non-ferrous metals</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>19,390.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>19,490.00</t>
-        </is>
+      <c r="D26" t="n">
+        <v>19390</v>
+      </c>
+      <c r="E26" t="n">
+        <v>19490</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1212,15 +1112,11 @@
           <t>Steel</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3,684.00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3,700.00</t>
-        </is>
+      <c r="D27" t="n">
+        <v>3684</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3700</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1242,15 +1138,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>13,520.00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>13,570.00</t>
-        </is>
+      <c r="D28" t="n">
+        <v>13520</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13570</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1272,15 +1164,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9,373.00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>9,404.00</t>
-        </is>
+      <c r="D29" t="n">
+        <v>9373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9404</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1302,15 +1190,11 @@
           <t>Rubber &amp; plastics</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>13,845.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>13,890.00</t>
-        </is>
+      <c r="D30" t="n">
+        <v>13845</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13890</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1332,15 +1216,11 @@
           <t>Rubber &amp; plastics</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>8,235.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>8,261.00</t>
-        </is>
+      <c r="D31" t="n">
+        <v>8235</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8261</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1362,15 +1242,11 @@
           <t>Rubber &amp; plastics</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7,732.00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>7,756.00</t>
-        </is>
+      <c r="D32" t="n">
+        <v>7732</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7756</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1392,15 +1268,11 @@
           <t>Steel</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>7,518.00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>7,528.00</t>
-        </is>
+      <c r="D33" t="n">
+        <v>7518</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7528</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1422,15 +1294,11 @@
           <t>Rubber &amp; plastics</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>6,143.00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>6,148.00</t>
-        </is>
+      <c r="D34" t="n">
+        <v>6143</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6148</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1452,15 +1320,11 @@
           <t>Non-ferrous metals</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>67,180.00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>67,210.00</t>
-        </is>
+      <c r="D35" t="n">
+        <v>67180</v>
+      </c>
+      <c r="E35" t="n">
+        <v>67210</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1482,15 +1346,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5,082.00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>5,084.00</t>
-        </is>
+      <c r="D36" t="n">
+        <v>5082</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5084</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1512,15 +1372,11 @@
           <t>Energy</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>801.40</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>801.40</t>
-        </is>
+      <c r="D37" t="n">
+        <v>801.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>801.4</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1542,15 +1398,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6,921.00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>6,917.00</t>
-        </is>
+      <c r="D38" t="n">
+        <v>6921</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6917</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1572,15 +1424,11 @@
           <t>Building materials</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1,688.00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1,687.00</t>
-        </is>
+      <c r="D39" t="n">
+        <v>1688</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1687</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1602,15 +1450,11 @@
           <t>Steel</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>14,835.00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>14,820.00</t>
-        </is>
+      <c r="D40" t="n">
+        <v>14835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>14820</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1632,15 +1476,11 @@
           <t>Building materials</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>3,917.00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3,911.00</t>
-        </is>
+      <c r="D41" t="n">
+        <v>3917</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3911</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1662,15 +1502,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>9,774.00</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>9,752.00</t>
-        </is>
+      <c r="D42" t="n">
+        <v>9774</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9752</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1692,15 +1528,11 @@
           <t>Non-ferrous metals</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>21,590.00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>21,505.00</t>
-        </is>
+      <c r="D43" t="n">
+        <v>21590</v>
+      </c>
+      <c r="E43" t="n">
+        <v>21505</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1722,15 +1554,11 @@
           <t>Chemical</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>4,176.00</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>4,158.00</t>
-        </is>
+      <c r="D44" t="n">
+        <v>4176</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4158</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1752,15 +1580,11 @@
           <t>Steel</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>7,042.00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>7,010.00</t>
-        </is>
+      <c r="D45" t="n">
+        <v>7042</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7010</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1782,15 +1606,11 @@
           <t>Non-ferrous metals</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>5,843.00</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>5,795.00</t>
-        </is>
+      <c r="D46" t="n">
+        <v>5843</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5795</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1812,15 +1632,11 @@
           <t>Non-ferrous metals</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>16,700.00</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>16,550.00</t>
-        </is>
+      <c r="D47" t="n">
+        <v>16700</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16550</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1842,15 +1658,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>4,571.00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>4,529.00</t>
-        </is>
+      <c r="D48" t="n">
+        <v>4571</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4529</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1872,15 +1684,11 @@
           <t>Agricultural &amp; sideline products</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>6,187.00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>6,118.00</t>
-        </is>
+      <c r="D49" t="n">
+        <v>6187</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6118</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1902,15 +1710,11 @@
           <t>Non-ferrous metals</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>468.30</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>460.92</t>
-        </is>
+      <c r="D50" t="n">
+        <v>468.3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>460.92</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1932,15 +1736,11 @@
           <t>Chemical</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1,800.00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1,771.00</t>
-        </is>
+      <c r="D51" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1771</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1958,15 +1758,11 @@
           <t>Chemical</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2,908.00</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2,860.00</t>
-        </is>
+      <c r="D52" t="n">
+        <v>2908</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2860</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1984,15 +1780,11 @@
           <t>Non-ferrous metals</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>14,280.00</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>14,030.00</t>
-        </is>
+      <c r="D53" t="n">
+        <v>14280</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14030</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2014,15 +1806,11 @@
           <t>Steel</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>3,966.00</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>3,835.00</t>
-        </is>
+      <c r="D54" t="n">
+        <v>3966</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3835</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
